--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -14,27 +14,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>POX/C</t>
-  </si>
-  <si>
-    <t>C/A</t>
-  </si>
-  <si>
-    <t>POX/M</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>PDI</t>
-  </si>
-  <si>
-    <t>Mn</t>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>MashTime</t>
+  </si>
+  <si>
+    <t>SolidosFermentaveis</t>
+  </si>
+  <si>
+    <t>SolidosNaoFermentaveis</t>
+  </si>
+  <si>
+    <t>SolidosTotais</t>
+  </si>
+  <si>
+    <t>PercFermentaveis</t>
+  </si>
+  <si>
+    <t>Extrato</t>
+  </si>
+  <si>
+    <t>MashingEfficiency</t>
+  </si>
+  <si>
+    <t>Dp1</t>
+  </si>
+  <si>
+    <t>Dp2</t>
+  </si>
+  <si>
+    <t>Dp3</t>
+  </si>
+  <si>
+    <t>Dp4Plus</t>
   </si>
   <si>
     <t>count</t>
@@ -416,13 +434,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,189 +462,351 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="F2">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="G2">
-        <v>5000</v>
+        <v>1000</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>1000</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+      <c r="K2">
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>1000</v>
+      </c>
+      <c r="M2">
+        <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>100.6333726210634</v>
+        <v>65</v>
       </c>
       <c r="C3">
-        <v>0.09925941260153906</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>0.001000158844475234</v>
+        <v>96.94092994264039</v>
       </c>
       <c r="E3">
-        <v>0.7129116607825223</v>
+        <v>48.49040226979136</v>
       </c>
       <c r="F3">
-        <v>1.032834501503651</v>
+        <v>152.4615906654977</v>
       </c>
       <c r="G3">
-        <v>78679.42036668859</v>
+        <v>63.47926899177205</v>
+      </c>
+      <c r="H3">
+        <v>14.54313322124318</v>
+      </c>
+      <c r="I3">
+        <v>95.29886035261634</v>
+      </c>
+      <c r="J3">
+        <v>7.913637169029514</v>
+      </c>
+      <c r="K3">
+        <v>45.49775780026358</v>
+      </c>
+      <c r="L3">
+        <v>10.06787402247895</v>
+      </c>
+      <c r="M3">
+        <v>31.81959136084431</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>5.336630602724714</v>
+        <v>9.998494677726423</v>
       </c>
       <c r="C4">
-        <v>0.005307434109865392</v>
+        <v>29.99548403317927</v>
       </c>
       <c r="D4">
-        <v>5.415584578606771E-05</v>
+        <v>22.09488519857674</v>
       </c>
       <c r="E4">
-        <v>0.01258091392606887</v>
+        <v>13.31724655041774</v>
       </c>
       <c r="F4">
-        <v>0.0008582535715661018</v>
+        <v>1.123328699128405</v>
       </c>
       <c r="G4">
-        <v>3954.211204650129</v>
+        <v>14.22205674278546</v>
+      </c>
+      <c r="H4">
+        <v>2.275842876167337</v>
+      </c>
+      <c r="I4">
+        <v>14.6476119442378</v>
+      </c>
+      <c r="J4">
+        <v>1.250674003895388</v>
+      </c>
+      <c r="K4">
+        <v>12.80693754054486</v>
+      </c>
+      <c r="L4">
+        <v>2.075530562340822</v>
+      </c>
+      <c r="M4">
+        <v>8.867311140844556</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>80.40036015459947</v>
+        <v>32.09473268508106</v>
       </c>
       <c r="C5">
-        <v>0.08040036015459946</v>
+        <v>1.284198055243166</v>
       </c>
       <c r="D5">
-        <v>0.0008040036015459947</v>
+        <v>15.50705457086778</v>
       </c>
       <c r="E5">
-        <v>0.6589070971454469</v>
+        <v>13.59428172819732</v>
       </c>
       <c r="F5">
-        <v>1.030699840299889</v>
+        <v>148.10697344438</v>
       </c>
       <c r="G5">
-        <v>66385.94263255737</v>
+        <v>10.4701718023367</v>
+      </c>
+      <c r="H5">
+        <v>3.600697344437997</v>
+      </c>
+      <c r="I5">
+        <v>24.31146394190683</v>
+      </c>
+      <c r="J5">
+        <v>3.46254299624347</v>
+      </c>
+      <c r="K5">
+        <v>7.00762880609323</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>9.150886220158162</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>97.03580126111225</v>
+        <v>58.26296131778599</v>
       </c>
       <c r="C6">
-        <v>0.09568128549757383</v>
+        <v>79.78888395335795</v>
       </c>
       <c r="D6">
-        <v>0.000963634818538748</v>
+        <v>89.73933244461371</v>
       </c>
       <c r="E6">
-        <v>0.7047652903117418</v>
+        <v>40.11173855912033</v>
       </c>
       <c r="F6">
-        <v>1.032226631245835</v>
+        <v>152.163736052687</v>
       </c>
       <c r="G6">
-        <v>75895.82389142229</v>
+        <v>58.98729052204998</v>
+      </c>
+      <c r="H6">
+        <v>15.15110282411983</v>
+      </c>
+      <c r="I6">
+        <v>99.64800337717145</v>
+      </c>
+      <c r="J6">
+        <v>7.199932893177007</v>
+      </c>
+      <c r="K6">
+        <v>39.58943849195545</v>
+      </c>
+      <c r="L6">
+        <v>10.6950767294104</v>
+      </c>
+      <c r="M6">
+        <v>26.20262024773336</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>100.6340729774889</v>
+        <v>65</v>
       </c>
       <c r="C7">
-        <v>0.09925926583316903</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>0.001000157451887214</v>
+        <v>105.8768879966164</v>
       </c>
       <c r="E7">
-        <v>0.7128604072133971</v>
+        <v>44.86397495528115</v>
       </c>
       <c r="F7">
-        <v>1.032737860401861</v>
+        <v>152.9140553288643</v>
       </c>
       <c r="G7">
-        <v>78565.22485624734</v>
+        <v>69.23879595889238</v>
+      </c>
+      <c r="H7">
+        <v>15.28698364340404</v>
+      </c>
+      <c r="I7">
+        <v>99.99916469286694</v>
+      </c>
+      <c r="J7">
+        <v>7.670735716254943</v>
+      </c>
+      <c r="K7">
+        <v>50.65271883845252</v>
+      </c>
+      <c r="L7">
+        <v>10.70235330613033</v>
+      </c>
+      <c r="M7">
+        <v>29.34608123116248</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>104.2318845832973</v>
+        <v>71.73703868221402</v>
       </c>
       <c r="C8">
-        <v>0.102837901791626</v>
+        <v>120.211116046642</v>
       </c>
       <c r="D8">
-        <v>0.001036696591716831</v>
+        <v>112.2942878222007</v>
       </c>
       <c r="E8">
-        <v>0.721285434918427</v>
+        <v>51.42766546338035</v>
       </c>
       <c r="F8">
-        <v>1.033355202078378</v>
+        <v>153.2103440366889</v>
       </c>
       <c r="G8">
-        <v>81263.30362759363</v>
+        <v>73.29419466744451</v>
+      </c>
+      <c r="H8">
+        <v>15.32053653781785</v>
+      </c>
+      <c r="I8">
+        <v>99.99999586186635</v>
+      </c>
+      <c r="J8">
+        <v>8.316078059309714</v>
+      </c>
+      <c r="K8">
+        <v>55.29412598582952</v>
+      </c>
+      <c r="L8">
+        <v>10.72136415644584</v>
+      </c>
+      <c r="M8">
+        <v>33.72328583140195</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B9">
-        <v>119.5996398454005</v>
+        <v>97.90526731491926</v>
       </c>
       <c r="C9">
-        <v>0.1195996398454005</v>
+        <v>198.7158019447578</v>
       </c>
       <c r="D9">
-        <v>0.001195996398454005</v>
+        <v>114.5695897190051</v>
       </c>
       <c r="E9">
-        <v>0.7662818102089913</v>
+        <v>85.74294277731047</v>
       </c>
       <c r="F9">
-        <v>1.037885298125204</v>
+        <v>153.3148027818198</v>
       </c>
       <c r="G9">
-        <v>94500.7072118778</v>
+        <v>74.7283286676809</v>
+      </c>
+      <c r="H9">
+        <v>15.33148027346516</v>
+      </c>
+      <c r="I9">
+        <v>99.99999999996247</v>
+      </c>
+      <c r="J9">
+        <v>10.74933242774137</v>
+      </c>
+      <c r="K9">
+        <v>56.95111272001579</v>
+      </c>
+      <c r="L9">
+        <v>10.79451731378597</v>
+      </c>
+      <c r="M9">
+        <v>57.03254907861945</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -14,45 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>MashTime</t>
-  </si>
-  <si>
-    <t>SolidosFermentaveis</t>
-  </si>
-  <si>
-    <t>SolidosNaoFermentaveis</t>
-  </si>
-  <si>
-    <t>SolidosTotais</t>
-  </si>
-  <si>
-    <t>PercFermentaveis</t>
-  </si>
-  <si>
-    <t>Extrato</t>
-  </si>
-  <si>
-    <t>MashingEfficiency</t>
-  </si>
-  <si>
-    <t>Dp1</t>
-  </si>
-  <si>
-    <t>Dp2</t>
-  </si>
-  <si>
-    <t>Dp3</t>
-  </si>
-  <si>
-    <t>Dp4Plus</t>
+    <t>POX/C</t>
+  </si>
+  <si>
+    <t>C/A</t>
+  </si>
+  <si>
+    <t>POX/M</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>PDI</t>
+  </si>
+  <si>
+    <t>Mn</t>
   </si>
   <si>
     <t>count</t>
@@ -434,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,351 +444,189 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>5000</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="D2">
+        <v>5000</v>
+      </c>
+      <c r="E2">
+        <v>5000</v>
+      </c>
+      <c r="F2">
+        <v>5000</v>
+      </c>
+      <c r="G2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B3">
+        <v>100.6333726210634</v>
+      </c>
+      <c r="C3">
+        <v>0.09925941260153906</v>
+      </c>
+      <c r="D3">
+        <v>0.001000158844475234</v>
+      </c>
+      <c r="E3">
+        <v>0.7129116607825223</v>
+      </c>
+      <c r="F3">
+        <v>1.032834501503651</v>
+      </c>
+      <c r="G3">
+        <v>78679.42036668859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B4">
+        <v>5.336630602724714</v>
+      </c>
+      <c r="C4">
+        <v>0.005307434109865392</v>
+      </c>
+      <c r="D4">
+        <v>5.415584578606771E-05</v>
+      </c>
+      <c r="E4">
+        <v>0.01258091392606887</v>
+      </c>
+      <c r="F4">
+        <v>0.0008582535715661018</v>
+      </c>
+      <c r="G4">
+        <v>3954.211204650129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B5">
+        <v>80.40036015459947</v>
+      </c>
+      <c r="C5">
+        <v>0.08040036015459946</v>
+      </c>
+      <c r="D5">
+        <v>0.0008040036015459947</v>
+      </c>
+      <c r="E5">
+        <v>0.6589070971454469</v>
+      </c>
+      <c r="F5">
+        <v>1.030699840299889</v>
+      </c>
+      <c r="G5">
+        <v>66385.94263255737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B6">
+        <v>97.03580126111225</v>
+      </c>
+      <c r="C6">
+        <v>0.09568128549757383</v>
+      </c>
+      <c r="D6">
+        <v>0.000963634818538748</v>
+      </c>
+      <c r="E6">
+        <v>0.7047652903117418</v>
+      </c>
+      <c r="F6">
+        <v>1.032226631245835</v>
+      </c>
+      <c r="G6">
+        <v>75895.82389142229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+      <c r="B7">
+        <v>100.6340729774889</v>
+      </c>
+      <c r="C7">
+        <v>0.09925926583316903</v>
+      </c>
+      <c r="D7">
+        <v>0.001000157451887214</v>
+      </c>
+      <c r="E7">
+        <v>0.7128604072133971</v>
+      </c>
+      <c r="F7">
+        <v>1.032737860401861</v>
+      </c>
+      <c r="G7">
+        <v>78565.22485624734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>1000</v>
-      </c>
-      <c r="C2">
-        <v>1000</v>
-      </c>
-      <c r="D2">
-        <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>1000</v>
-      </c>
-      <c r="F2">
-        <v>1000</v>
-      </c>
-      <c r="G2">
-        <v>1000</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2">
-        <v>1000</v>
-      </c>
-      <c r="J2">
-        <v>1000</v>
-      </c>
-      <c r="K2">
-        <v>1000</v>
-      </c>
-      <c r="L2">
-        <v>1000</v>
-      </c>
-      <c r="M2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+      <c r="B8">
+        <v>104.2318845832973</v>
+      </c>
+      <c r="C8">
+        <v>0.102837901791626</v>
+      </c>
+      <c r="D8">
+        <v>0.001036696591716831</v>
+      </c>
+      <c r="E8">
+        <v>0.721285434918427</v>
+      </c>
+      <c r="F8">
+        <v>1.033355202078378</v>
+      </c>
+      <c r="G8">
+        <v>81263.30362759363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>65</v>
-      </c>
-      <c r="C3">
-        <v>100</v>
-      </c>
-      <c r="D3">
-        <v>96.94092994264039</v>
-      </c>
-      <c r="E3">
-        <v>48.49040226979136</v>
-      </c>
-      <c r="F3">
-        <v>152.4615906654977</v>
-      </c>
-      <c r="G3">
-        <v>63.47926899177205</v>
-      </c>
-      <c r="H3">
-        <v>14.54313322124318</v>
-      </c>
-      <c r="I3">
-        <v>95.29886035261634</v>
-      </c>
-      <c r="J3">
-        <v>7.913637169029514</v>
-      </c>
-      <c r="K3">
-        <v>45.49775780026358</v>
-      </c>
-      <c r="L3">
-        <v>10.06787402247895</v>
-      </c>
-      <c r="M3">
-        <v>31.81959136084431</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>9.998494677726423</v>
-      </c>
-      <c r="C4">
-        <v>29.99548403317927</v>
-      </c>
-      <c r="D4">
-        <v>22.09488519857674</v>
-      </c>
-      <c r="E4">
-        <v>13.31724655041774</v>
-      </c>
-      <c r="F4">
-        <v>1.123328699128405</v>
-      </c>
-      <c r="G4">
-        <v>14.22205674278546</v>
-      </c>
-      <c r="H4">
-        <v>2.275842876167337</v>
-      </c>
-      <c r="I4">
-        <v>14.6476119442378</v>
-      </c>
-      <c r="J4">
-        <v>1.250674003895388</v>
-      </c>
-      <c r="K4">
-        <v>12.80693754054486</v>
-      </c>
-      <c r="L4">
-        <v>2.075530562340822</v>
-      </c>
-      <c r="M4">
-        <v>8.867311140844556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>32.09473268508106</v>
-      </c>
-      <c r="C5">
-        <v>1.284198055243166</v>
-      </c>
-      <c r="D5">
-        <v>15.50705457086778</v>
-      </c>
-      <c r="E5">
-        <v>13.59428172819732</v>
-      </c>
-      <c r="F5">
-        <v>148.10697344438</v>
-      </c>
-      <c r="G5">
-        <v>10.4701718023367</v>
-      </c>
-      <c r="H5">
-        <v>3.600697344437997</v>
-      </c>
-      <c r="I5">
-        <v>24.31146394190683</v>
-      </c>
-      <c r="J5">
-        <v>3.46254299624347</v>
-      </c>
-      <c r="K5">
-        <v>7.00762880609323</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>9.150886220158162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>58.26296131778599</v>
-      </c>
-      <c r="C6">
-        <v>79.78888395335795</v>
-      </c>
-      <c r="D6">
-        <v>89.73933244461371</v>
-      </c>
-      <c r="E6">
-        <v>40.11173855912033</v>
-      </c>
-      <c r="F6">
-        <v>152.163736052687</v>
-      </c>
-      <c r="G6">
-        <v>58.98729052204998</v>
-      </c>
-      <c r="H6">
-        <v>15.15110282411983</v>
-      </c>
-      <c r="I6">
-        <v>99.64800337717145</v>
-      </c>
-      <c r="J6">
-        <v>7.199932893177007</v>
-      </c>
-      <c r="K6">
-        <v>39.58943849195545</v>
-      </c>
-      <c r="L6">
-        <v>10.6950767294104</v>
-      </c>
-      <c r="M6">
-        <v>26.20262024773336</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>65</v>
-      </c>
-      <c r="C7">
-        <v>100</v>
-      </c>
-      <c r="D7">
-        <v>105.8768879966164</v>
-      </c>
-      <c r="E7">
-        <v>44.86397495528115</v>
-      </c>
-      <c r="F7">
-        <v>152.9140553288643</v>
-      </c>
-      <c r="G7">
-        <v>69.23879595889238</v>
-      </c>
-      <c r="H7">
-        <v>15.28698364340404</v>
-      </c>
-      <c r="I7">
-        <v>99.99916469286694</v>
-      </c>
-      <c r="J7">
-        <v>7.670735716254943</v>
-      </c>
-      <c r="K7">
-        <v>50.65271883845252</v>
-      </c>
-      <c r="L7">
-        <v>10.70235330613033</v>
-      </c>
-      <c r="M7">
-        <v>29.34608123116248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>71.73703868221402</v>
-      </c>
-      <c r="C8">
-        <v>120.211116046642</v>
-      </c>
-      <c r="D8">
-        <v>112.2942878222007</v>
-      </c>
-      <c r="E8">
-        <v>51.42766546338035</v>
-      </c>
-      <c r="F8">
-        <v>153.2103440366889</v>
-      </c>
-      <c r="G8">
-        <v>73.29419466744451</v>
-      </c>
-      <c r="H8">
-        <v>15.32053653781785</v>
-      </c>
-      <c r="I8">
-        <v>99.99999586186635</v>
-      </c>
-      <c r="J8">
-        <v>8.316078059309714</v>
-      </c>
-      <c r="K8">
-        <v>55.29412598582952</v>
-      </c>
-      <c r="L8">
-        <v>10.72136415644584</v>
-      </c>
-      <c r="M8">
-        <v>33.72328583140195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
       <c r="B9">
-        <v>97.90526731491926</v>
+        <v>119.5996398454005</v>
       </c>
       <c r="C9">
-        <v>198.7158019447578</v>
+        <v>0.1195996398454005</v>
       </c>
       <c r="D9">
-        <v>114.5695897190051</v>
+        <v>0.001195996398454005</v>
       </c>
       <c r="E9">
-        <v>85.74294277731047</v>
+        <v>0.7662818102089913</v>
       </c>
       <c r="F9">
-        <v>153.3148027818198</v>
+        <v>1.037885298125204</v>
       </c>
       <c r="G9">
-        <v>74.7283286676809</v>
-      </c>
-      <c r="H9">
-        <v>15.33148027346516</v>
-      </c>
-      <c r="I9">
-        <v>99.99999999996247</v>
-      </c>
-      <c r="J9">
-        <v>10.74933242774137</v>
-      </c>
-      <c r="K9">
-        <v>56.95111272001579</v>
-      </c>
-      <c r="L9">
-        <v>10.79451731378597</v>
-      </c>
-      <c r="M9">
-        <v>57.03254907861945</v>
+        <v>94500.7072118778</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -482,13 +482,13 @@
         <v>0.001000158844475234</v>
       </c>
       <c r="E3">
-        <v>0.7129116607825223</v>
+        <v>0.7129117291503684</v>
       </c>
       <c r="F3">
-        <v>1.032834501503651</v>
+        <v>1.032834171127953</v>
       </c>
       <c r="G3">
-        <v>78679.42036668859</v>
+        <v>78679.45245659979</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -505,13 +505,13 @@
         <v>5.415584578606771E-05</v>
       </c>
       <c r="E4">
-        <v>0.01258091392606887</v>
+        <v>0.01258079422247095</v>
       </c>
       <c r="F4">
-        <v>0.0008582535715661018</v>
+        <v>0.0008580503590280352</v>
       </c>
       <c r="G4">
-        <v>3954.211204650129</v>
+        <v>3954.239200401186</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -528,13 +528,13 @@
         <v>0.0008040036015459947</v>
       </c>
       <c r="E5">
-        <v>0.6589070971454469</v>
+        <v>0.6589167194289471</v>
       </c>
       <c r="F5">
-        <v>1.030699840299889</v>
+        <v>1.030699407367167</v>
       </c>
       <c r="G5">
-        <v>66385.94263255737</v>
+        <v>66390.73424692501</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -551,13 +551,13 @@
         <v>0.000963634818538748</v>
       </c>
       <c r="E6">
-        <v>0.7047652903117418</v>
+        <v>0.7047538164791789</v>
       </c>
       <c r="F6">
-        <v>1.032226631245835</v>
+        <v>1.03222575368207</v>
       </c>
       <c r="G6">
-        <v>75895.82389142229</v>
+        <v>75895.06285653234</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -574,13 +574,13 @@
         <v>0.001000157451887214</v>
       </c>
       <c r="E7">
-        <v>0.7128604072133971</v>
+        <v>0.7128540410162563</v>
       </c>
       <c r="F7">
-        <v>1.032737860401861</v>
+        <v>1.032739146104849</v>
       </c>
       <c r="G7">
-        <v>78565.22485624734</v>
+        <v>78564.74524167427</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -597,13 +597,13 @@
         <v>0.001036696591716831</v>
       </c>
       <c r="E8">
-        <v>0.721285434918427</v>
+        <v>0.7212907360074411</v>
       </c>
       <c r="F8">
-        <v>1.033355202078378</v>
+        <v>1.033354254656776</v>
       </c>
       <c r="G8">
-        <v>81263.30362759363</v>
+        <v>81262.6366782485</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -620,13 +620,13 @@
         <v>0.001195996398454005</v>
       </c>
       <c r="E9">
-        <v>0.7662818102089913</v>
+        <v>0.7662807552571944</v>
       </c>
       <c r="F9">
-        <v>1.037885298125204</v>
+        <v>1.037888771934041</v>
       </c>
       <c r="G9">
-        <v>94500.7072118778</v>
+        <v>94500.41535620989</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -473,22 +473,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>100.6333726210634</v>
+        <v>100.00006</v>
       </c>
       <c r="C3">
-        <v>0.09925941260153906</v>
+        <v>0.099999712</v>
       </c>
       <c r="D3">
-        <v>0.001000158844475234</v>
+        <v>0.0009999997600000001</v>
       </c>
       <c r="E3">
-        <v>0.7129117291503684</v>
+        <v>0.7102666230633887</v>
       </c>
       <c r="F3">
-        <v>1.032834171127953</v>
+        <v>1.034145083016212</v>
       </c>
       <c r="G3">
-        <v>78679.45245659979</v>
+        <v>80607.15869937603</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>5.336630602724714</v>
+        <v>17.33964079630801</v>
       </c>
       <c r="C4">
-        <v>0.005307434109865392</v>
+        <v>0.01733953183537289</v>
       </c>
       <c r="D4">
-        <v>5.415584578606771E-05</v>
+        <v>0.0001733934224350253</v>
       </c>
       <c r="E4">
-        <v>0.01258079422247095</v>
+        <v>0.04147410335169903</v>
       </c>
       <c r="F4">
-        <v>0.0008580503590280352</v>
+        <v>0.003436597065559849</v>
       </c>
       <c r="G4">
-        <v>3954.239200401186</v>
+        <v>13407.49611982769</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>80.40036015459947</v>
+        <v>70</v>
       </c>
       <c r="C5">
-        <v>0.08040036015459946</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D5">
-        <v>0.0008040036015459947</v>
+        <v>0.0007</v>
       </c>
       <c r="E5">
-        <v>0.6589167194289471</v>
+        <v>0.578895168070878</v>
       </c>
       <c r="F5">
-        <v>1.030699407367167</v>
+        <v>1.029532856100207</v>
       </c>
       <c r="G5">
-        <v>66390.73424692501</v>
+        <v>55989.3350985158</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>97.03580126111225</v>
+        <v>85</v>
       </c>
       <c r="C6">
-        <v>0.09568128549757383</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D6">
-        <v>0.000963634818538748</v>
+        <v>0.00085</v>
       </c>
       <c r="E6">
-        <v>0.7047538164791789</v>
+        <v>0.6826635816458004</v>
       </c>
       <c r="F6">
-        <v>1.03222575368207</v>
+        <v>1.031562654380683</v>
       </c>
       <c r="G6">
-        <v>75895.06285653234</v>
+        <v>69582.03205037788</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>100.6340729774889</v>
+        <v>100</v>
       </c>
       <c r="C7">
-        <v>0.09925926583316903</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
-        <v>0.001000157451887214</v>
+        <v>0.001</v>
       </c>
       <c r="E7">
-        <v>0.7128540410162563</v>
+        <v>0.7098506874547897</v>
       </c>
       <c r="F7">
-        <v>1.032739146104849</v>
+        <v>1.033217651792513</v>
       </c>
       <c r="G7">
-        <v>78564.74524167427</v>
+        <v>78792.86996330289</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>104.2318845832973</v>
+        <v>115</v>
       </c>
       <c r="C8">
-        <v>0.102837901791626</v>
+        <v>0.115</v>
       </c>
       <c r="D8">
-        <v>0.001036696591716831</v>
+        <v>0.00115</v>
       </c>
       <c r="E8">
-        <v>0.7212907360074411</v>
+        <v>0.7404884652144335</v>
       </c>
       <c r="F8">
-        <v>1.033354254656776</v>
+        <v>1.035783408489331</v>
       </c>
       <c r="G8">
-        <v>81262.6366782485</v>
+        <v>90208.41744320151</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>119.5996398454005</v>
+        <v>130</v>
       </c>
       <c r="C9">
-        <v>0.1195996398454005</v>
+        <v>0.13</v>
       </c>
       <c r="D9">
-        <v>0.001195996398454005</v>
+        <v>0.0013</v>
       </c>
       <c r="E9">
-        <v>0.7662807552571944</v>
+        <v>0.8099847382030015</v>
       </c>
       <c r="F9">
-        <v>1.037888771934041</v>
+        <v>1.049276336254016</v>
       </c>
       <c r="G9">
-        <v>94500.41535620989</v>
+        <v>124214.6968227415</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="C2">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="D2">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="E2">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="F2">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="G2">
-        <v>5000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>100.00006</v>
+        <v>100.0000012</v>
       </c>
       <c r="C3">
-        <v>0.099999712</v>
+        <v>0.0999999964</v>
       </c>
       <c r="D3">
-        <v>0.0009999997600000001</v>
+        <v>0.0009999999280000001</v>
       </c>
       <c r="E3">
-        <v>0.7102666230633887</v>
+        <v>0.7101831633425429</v>
       </c>
       <c r="F3">
-        <v>1.034145083016212</v>
+        <v>1.034148332520787</v>
       </c>
       <c r="G3">
-        <v>80607.15869937603</v>
+        <v>80582.32065237426</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>17.33964079630801</v>
+        <v>17.33801102677369</v>
       </c>
       <c r="C4">
-        <v>0.01733953183537289</v>
+        <v>0.01733799088564029</v>
       </c>
       <c r="D4">
-        <v>0.0001733934224350253</v>
+        <v>0.0001733800567587762</v>
       </c>
       <c r="E4">
-        <v>0.04147410335169903</v>
+        <v>0.04184318341006341</v>
       </c>
       <c r="F4">
-        <v>0.003436597065559849</v>
+        <v>0.003428288513016337</v>
       </c>
       <c r="G4">
-        <v>13407.49611982769</v>
+        <v>13328.3073714289</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -528,13 +528,13 @@
         <v>0.0007</v>
       </c>
       <c r="E5">
-        <v>0.578895168070878</v>
+        <v>0.5721519384014822</v>
       </c>
       <c r="F5">
-        <v>1.029532856100207</v>
+        <v>1.029535005472516</v>
       </c>
       <c r="G5">
-        <v>55989.3350985158</v>
+        <v>55230.42756676323</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -551,13 +551,13 @@
         <v>0.00085</v>
       </c>
       <c r="E6">
-        <v>0.6826635816458004</v>
+        <v>0.6817977762586498</v>
       </c>
       <c r="F6">
-        <v>1.031562654380683</v>
+        <v>1.031581962698854</v>
       </c>
       <c r="G6">
-        <v>69582.03205037788</v>
+        <v>69782.59832743558</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -574,13 +574,13 @@
         <v>0.001</v>
       </c>
       <c r="E7">
-        <v>0.7098506874547897</v>
+        <v>0.7102005413632267</v>
       </c>
       <c r="F7">
-        <v>1.033217651792513</v>
+        <v>1.033275864086499</v>
       </c>
       <c r="G7">
-        <v>78792.86996330289</v>
+        <v>78769.4728925252</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -597,13 +597,13 @@
         <v>0.00115</v>
       </c>
       <c r="E8">
-        <v>0.7404884652144335</v>
+        <v>0.7408790013968939</v>
       </c>
       <c r="F8">
-        <v>1.035783408489331</v>
+        <v>1.035737458526838</v>
       </c>
       <c r="G8">
-        <v>90208.41744320151</v>
+        <v>90054.19338616684</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -620,13 +620,13 @@
         <v>0.0013</v>
       </c>
       <c r="E9">
-        <v>0.8099847382030015</v>
+        <v>0.8108401949089699</v>
       </c>
       <c r="F9">
-        <v>1.049276336254016</v>
+        <v>1.049419532824653</v>
       </c>
       <c r="G9">
-        <v>124214.6968227415</v>
+        <v>126839.118783051</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -14,27 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>index</t>
   </si>
   <si>
-    <t>POX/C</t>
-  </si>
-  <si>
-    <t>C/A</t>
-  </si>
-  <si>
-    <t>POX/M</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>PDI</t>
-  </si>
-  <si>
-    <t>Mn</t>
+    <t>Evaporator Temperature</t>
+  </si>
+  <si>
+    <t>Condenser Temperature</t>
+  </si>
+  <si>
+    <t>Adiabatic Efficiency</t>
+  </si>
+  <si>
+    <t>Compressor Energy</t>
+  </si>
+  <si>
+    <t>Electric Current</t>
+  </si>
+  <si>
+    <t>Discharge Temperature</t>
+  </si>
+  <si>
+    <t>Refrigerant Mass Flow</t>
   </si>
   <si>
     <t>count</t>
@@ -416,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,189 +447,216 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="D2">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="E2">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="F2">
-        <v>50000</v>
+        <v>1000</v>
       </c>
       <c r="G2">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>1000</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>100.0000012</v>
+        <v>12.5</v>
       </c>
       <c r="C3">
-        <v>0.0999999964</v>
+        <v>50.0003</v>
       </c>
       <c r="D3">
-        <v>0.0009999999280000001</v>
+        <v>80.001</v>
       </c>
       <c r="E3">
-        <v>0.7101831633425429</v>
+        <v>848.962429994751</v>
       </c>
       <c r="F3">
-        <v>1.034148332520787</v>
+        <v>3.858920136339777</v>
       </c>
       <c r="G3">
-        <v>80582.32065237426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>70.51314721706937</v>
+      </c>
+      <c r="H3">
+        <v>1.539400002327467</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>17.33801102677369</v>
+        <v>4.361222335568351</v>
       </c>
       <c r="C4">
-        <v>0.01733799088564029</v>
+        <v>5.804784701901996</v>
       </c>
       <c r="D4">
-        <v>0.0001733800567587762</v>
+        <v>11.8379532072118</v>
       </c>
       <c r="E4">
-        <v>0.04184318341006341</v>
+        <v>265.6429316105671</v>
       </c>
       <c r="F4">
-        <v>0.003428288513016337</v>
+        <v>1.207467870957123</v>
       </c>
       <c r="G4">
-        <v>13328.3073714289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>9.755434261254473</v>
+      </c>
+      <c r="H4">
+        <v>0.1385190058425199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>309.3402205881681</v>
+      </c>
+      <c r="F5">
+        <v>1.4060919117644</v>
+      </c>
+      <c r="G5">
+        <v>49.3422085632954</v>
+      </c>
+      <c r="H5">
+        <v>1.325953708593838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6">
         <v>70</v>
       </c>
-      <c r="C5">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="D5">
-        <v>0.0007</v>
-      </c>
-      <c r="E5">
-        <v>0.5721519384014822</v>
-      </c>
-      <c r="F5">
-        <v>1.029535005472516</v>
-      </c>
-      <c r="G5">
-        <v>55230.42756676323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>85</v>
-      </c>
-      <c r="C6">
-        <v>0.08500000000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.00085</v>
-      </c>
       <c r="E6">
-        <v>0.6817977762586498</v>
+        <v>644.8420802259237</v>
       </c>
       <c r="F6">
-        <v>1.031581962698854</v>
+        <v>2.93110036466329</v>
       </c>
       <c r="G6">
-        <v>69782.59832743558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>62.57160324174789</v>
+      </c>
+      <c r="H6">
+        <v>1.41895887751216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
+        <v>12.5</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>823.4872559080964</v>
+      </c>
+      <c r="F7">
+        <v>3.743123890491347</v>
+      </c>
+      <c r="G7">
+        <v>70.41027837068043</v>
+      </c>
+      <c r="H7">
+        <v>1.519208251583474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>16.3</v>
+      </c>
+      <c r="C8">
+        <v>55</v>
+      </c>
+      <c r="D8">
+        <v>90</v>
+      </c>
+      <c r="E8">
+        <v>1018.36813066279</v>
+      </c>
+      <c r="F8">
+        <v>4.628946048467228</v>
+      </c>
+      <c r="G8">
+        <v>78.16778985715909</v>
+      </c>
+      <c r="H8">
+        <v>1.649738007663954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="D9">
         <v>100</v>
       </c>
-      <c r="C7">
-        <v>0.1</v>
-      </c>
-      <c r="D7">
-        <v>0.001</v>
-      </c>
-      <c r="E7">
-        <v>0.7102005413632267</v>
-      </c>
-      <c r="F7">
-        <v>1.033275864086499</v>
-      </c>
-      <c r="G7">
-        <v>78769.4728925252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>115</v>
-      </c>
-      <c r="C8">
-        <v>0.115</v>
-      </c>
-      <c r="D8">
-        <v>0.00115</v>
-      </c>
-      <c r="E8">
-        <v>0.7408790013968939</v>
-      </c>
-      <c r="F8">
-        <v>1.035737458526838</v>
-      </c>
-      <c r="G8">
-        <v>90054.19338616684</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>130</v>
-      </c>
-      <c r="C9">
-        <v>0.13</v>
-      </c>
-      <c r="D9">
-        <v>0.0013</v>
-      </c>
       <c r="E9">
-        <v>0.8108401949089699</v>
+        <v>1755.41518342651</v>
       </c>
       <c r="F9">
-        <v>1.049419532824653</v>
+        <v>7.979159924665955</v>
       </c>
       <c r="G9">
-        <v>126839.118783051</v>
+        <v>96.3756304444762</v>
+      </c>
+      <c r="H9">
+        <v>1.843874200598884</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="C3">
-        <v>50.0003</v>
+        <v>41.925</v>
       </c>
       <c r="D3">
-        <v>80.001</v>
+        <v>74.625</v>
       </c>
       <c r="E3">
-        <v>848.962429994751</v>
+        <v>474.129034801433</v>
       </c>
       <c r="F3">
-        <v>3.858920136339777</v>
+        <v>2.15513197637015</v>
       </c>
       <c r="G3">
-        <v>70.51314721706937</v>
+        <v>55.41553046793595</v>
       </c>
       <c r="H3">
-        <v>1.539400002327467</v>
+        <v>1.355406028188823</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>4.361222335568351</v>
+        <v>0.9149551120917663</v>
       </c>
       <c r="C4">
-        <v>5.804784701901996</v>
+        <v>0.8988087354143482</v>
       </c>
       <c r="D4">
-        <v>11.8379532072118</v>
+        <v>1.767766952966369</v>
       </c>
       <c r="E4">
-        <v>265.6429316105671</v>
+        <v>49.33513610520001</v>
       </c>
       <c r="F4">
-        <v>1.207467870957123</v>
+        <v>0.22425061866</v>
       </c>
       <c r="G4">
-        <v>9.755434261254473</v>
+        <v>2.101254755348422</v>
       </c>
       <c r="H4">
-        <v>0.1385190058425199</v>
+        <v>0.01558491757889313</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,22 +534,22 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>17.3</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>40.2</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="E5">
-        <v>309.3402205881681</v>
+        <v>386.5009257334684</v>
       </c>
       <c r="F5">
-        <v>1.4060919117644</v>
+        <v>1.756822389697584</v>
       </c>
       <c r="G5">
-        <v>49.3422085632954</v>
+        <v>51.47588229407467</v>
       </c>
       <c r="H5">
         <v>1.325953708593838</v>
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>8.699999999999999</v>
+        <v>17.875</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>41.575</v>
       </c>
       <c r="D6">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6">
-        <v>644.8420802259237</v>
+        <v>444.7013338523182</v>
       </c>
       <c r="F6">
-        <v>2.93110036466329</v>
+        <v>2.021369699328719</v>
       </c>
       <c r="G6">
-        <v>62.57160324174789</v>
+        <v>54.52034715604061</v>
       </c>
       <c r="H6">
-        <v>1.41895887751216</v>
+        <v>1.349246938485911</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>12.5</v>
+        <v>18.25</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E7">
-        <v>823.4872559080964</v>
+        <v>477.6778706678695</v>
       </c>
       <c r="F7">
-        <v>3.743123890491347</v>
+        <v>2.171263048490316</v>
       </c>
       <c r="G7">
-        <v>70.41027837068043</v>
+        <v>55.45567476575528</v>
       </c>
       <c r="H7">
-        <v>1.519208251583474</v>
+        <v>1.356125178266156</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>16.3</v>
+        <v>19.2</v>
       </c>
       <c r="C8">
-        <v>55</v>
+        <v>42.34999999999999</v>
       </c>
       <c r="D8">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="E8">
-        <v>1018.36813066279</v>
+        <v>508.5560977594784</v>
       </c>
       <c r="F8">
-        <v>4.628946048467228</v>
+        <v>2.311618626179448</v>
       </c>
       <c r="G8">
-        <v>78.16778985715909</v>
+        <v>56.80217466767061</v>
       </c>
       <c r="H8">
-        <v>1.649738007663954</v>
+        <v>1.36361820139446</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>43.3</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="E9">
-        <v>1755.41518342651</v>
+        <v>533.6252889427999</v>
       </c>
       <c r="F9">
-        <v>7.979159924665955</v>
+        <v>2.425569495194545</v>
       </c>
       <c r="G9">
-        <v>96.3756304444762</v>
+        <v>58.23158159468812</v>
       </c>
       <c r="H9">
-        <v>1.843874200598884</v>
+        <v>1.379143655278602</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="C3">
-        <v>41.925</v>
+        <v>50.0003</v>
       </c>
       <c r="D3">
-        <v>74.625</v>
+        <v>75</v>
       </c>
       <c r="E3">
-        <v>474.129034801433</v>
+        <v>887.5522776019221</v>
       </c>
       <c r="F3">
-        <v>2.15513197637015</v>
+        <v>4.034328534554191</v>
       </c>
       <c r="G3">
-        <v>55.41553046793595</v>
+        <v>71.51137001752784</v>
       </c>
       <c r="H3">
-        <v>1.355406028188823</v>
+        <v>1.539560509000438</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.9149551120917663</v>
+        <v>4.361222335568351</v>
       </c>
       <c r="C4">
-        <v>0.8988087354143482</v>
+        <v>5.804784701901996</v>
       </c>
       <c r="D4">
-        <v>1.767766952966369</v>
+        <v>3.164176356022529</v>
       </c>
       <c r="E4">
-        <v>49.33513610520001</v>
+        <v>245.8039609162647</v>
       </c>
       <c r="F4">
-        <v>0.22425061866</v>
+        <v>1.117290731437567</v>
       </c>
       <c r="G4">
-        <v>2.101254755348422</v>
+        <v>9.292988841609489</v>
       </c>
       <c r="H4">
-        <v>0.01558491757889313</v>
+        <v>0.1384690984482913</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,22 +534,22 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>17.3</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>40.2</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5">
-        <v>386.5009257334684</v>
+        <v>382.808522977858</v>
       </c>
       <c r="F5">
-        <v>1.756822389697584</v>
+        <v>1.740038740808445</v>
       </c>
       <c r="G5">
-        <v>51.47588229407467</v>
+        <v>51.58672668061098</v>
       </c>
       <c r="H5">
         <v>1.325953708593838</v>
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>17.875</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="C6">
-        <v>41.575</v>
+        <v>45</v>
       </c>
       <c r="D6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E6">
-        <v>444.7013338523182</v>
+        <v>695.1541840006971</v>
       </c>
       <c r="F6">
-        <v>2.021369699328719</v>
+        <v>3.159791745457714</v>
       </c>
       <c r="G6">
-        <v>54.52034715604061</v>
+        <v>63.97944671195547</v>
       </c>
       <c r="H6">
-        <v>1.349246938485911</v>
+        <v>1.419410163546042</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>18.25</v>
+        <v>12.5</v>
       </c>
       <c r="C7">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>75</v>
       </c>
       <c r="E7">
-        <v>477.6778706678695</v>
+        <v>865.2702772661264</v>
       </c>
       <c r="F7">
-        <v>2.171263048490316</v>
+        <v>3.933046714846029</v>
       </c>
       <c r="G7">
-        <v>55.45567476575528</v>
+        <v>71.55238617563572</v>
       </c>
       <c r="H7">
-        <v>1.356125178266156</v>
+        <v>1.520062647809618</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>19.2</v>
+        <v>16.3</v>
       </c>
       <c r="C8">
-        <v>42.34999999999999</v>
+        <v>55</v>
       </c>
       <c r="D8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E8">
-        <v>508.5560977594784</v>
+        <v>1053.216290604605</v>
       </c>
       <c r="F8">
-        <v>2.311618626179448</v>
+        <v>4.787346775475475</v>
       </c>
       <c r="G8">
-        <v>56.80217466767061</v>
+        <v>79.09821146197554</v>
       </c>
       <c r="H8">
-        <v>1.36361820139446</v>
+        <v>1.649738007663954</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>43.3</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E9">
-        <v>533.6252889427999</v>
+        <v>1627.090284823006</v>
       </c>
       <c r="F9">
-        <v>2.425569495194545</v>
+        <v>7.395864931013665</v>
       </c>
       <c r="G9">
-        <v>58.23158159468812</v>
+        <v>92.83006186939957</v>
       </c>
       <c r="H9">
-        <v>1.379143655278602</v>
+        <v>1.843874200598884</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -488,19 +488,19 @@
         <v>50.0003</v>
       </c>
       <c r="D3">
-        <v>75</v>
+        <v>74.99920000000002</v>
       </c>
       <c r="E3">
-        <v>887.5522776019221</v>
+        <v>887.3037577532255</v>
       </c>
       <c r="F3">
-        <v>4.034328534554191</v>
+        <v>4.033198898878298</v>
       </c>
       <c r="G3">
-        <v>71.51137001752784</v>
+        <v>71.50486967605465</v>
       </c>
       <c r="H3">
-        <v>1.539560509000438</v>
+        <v>1.539503847989528</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -514,19 +514,19 @@
         <v>5.804784701901996</v>
       </c>
       <c r="D4">
-        <v>3.164176356022529</v>
+        <v>2.917421928811585</v>
       </c>
       <c r="E4">
-        <v>245.8039609162647</v>
+        <v>245.4234275958604</v>
       </c>
       <c r="F4">
-        <v>1.117290731437567</v>
+        <v>1.115561034526638</v>
       </c>
       <c r="G4">
-        <v>9.292988841609489</v>
+        <v>9.28329523944449</v>
       </c>
       <c r="H4">
-        <v>0.1384690984482913</v>
+        <v>0.1385223734673931</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -543,13 +543,13 @@
         <v>70</v>
       </c>
       <c r="E5">
-        <v>382.808522977858</v>
+        <v>384.2494584470343</v>
       </c>
       <c r="F5">
-        <v>1.740038740808445</v>
+        <v>1.74658844748652</v>
       </c>
       <c r="G5">
-        <v>51.58672668061098</v>
+        <v>51.63153015126568</v>
       </c>
       <c r="H5">
         <v>1.325953708593838</v>
@@ -566,16 +566,16 @@
         <v>45</v>
       </c>
       <c r="D6">
-        <v>72</v>
+        <v>72.5</v>
       </c>
       <c r="E6">
-        <v>695.1541840006971</v>
+        <v>696.0793422450178</v>
       </c>
       <c r="F6">
-        <v>3.159791745457714</v>
+        <v>3.163997010204627</v>
       </c>
       <c r="G6">
-        <v>63.97944671195547</v>
+        <v>63.94280080697139</v>
       </c>
       <c r="H6">
         <v>1.419410163546042</v>
@@ -595,13 +595,13 @@
         <v>75</v>
       </c>
       <c r="E7">
-        <v>865.2702772661264</v>
+        <v>864.6723902475078</v>
       </c>
       <c r="F7">
-        <v>3.933046714846029</v>
+        <v>3.930329046579581</v>
       </c>
       <c r="G7">
-        <v>71.55238617563572</v>
+        <v>71.56531018784491</v>
       </c>
       <c r="H7">
         <v>1.520062647809618</v>
@@ -618,16 +618,16 @@
         <v>55</v>
       </c>
       <c r="D8">
-        <v>78</v>
+        <v>77.5</v>
       </c>
       <c r="E8">
-        <v>1053.216290604605</v>
+        <v>1051.529758783211</v>
       </c>
       <c r="F8">
-        <v>4.787346775475475</v>
+        <v>4.779680721741869</v>
       </c>
       <c r="G8">
-        <v>79.09821146197554</v>
+        <v>79.15157229414541</v>
       </c>
       <c r="H8">
         <v>1.649738007663954</v>
@@ -647,13 +647,13 @@
         <v>80</v>
       </c>
       <c r="E9">
-        <v>1627.090284823006</v>
+        <v>1631.622569738947</v>
       </c>
       <c r="F9">
-        <v>7.395864931013665</v>
+        <v>7.416466226086124</v>
       </c>
       <c r="G9">
-        <v>92.83006186939957</v>
+        <v>92.93582601647842</v>
       </c>
       <c r="H9">
         <v>1.843874200598884</v>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -16,7 +16,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>index</t>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
   <si>
     <t>Evaporator Temperature</t>
@@ -38,30 +62,6 @@
   </si>
   <si>
     <t>Refrigerant Mass Flow</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>max</t>
   </si>
 </sst>
 </file>
@@ -419,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,213 +450,211 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>101</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>16.25445544554455</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>2.072222225171579</v>
       </c>
       <c r="E2">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>1000</v>
+        <v>14.3</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>16.1</v>
       </c>
       <c r="H2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>18.1</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>12.5</v>
+        <v>101</v>
       </c>
       <c r="C3">
-        <v>50.0003</v>
+        <v>47.62772277227722</v>
       </c>
       <c r="D3">
-        <v>74.99920000000002</v>
+        <v>1.382253146994514</v>
       </c>
       <c r="E3">
-        <v>887.3037577532255</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>4.033198898878298</v>
+        <v>46.6</v>
       </c>
       <c r="G3">
-        <v>71.50486967605465</v>
+        <v>47.6</v>
       </c>
       <c r="H3">
-        <v>1.539503847989528</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>48.7</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>4.361222335568351</v>
+        <v>101</v>
       </c>
       <c r="C4">
-        <v>5.804784701901996</v>
+        <v>74.5762376237624</v>
       </c>
       <c r="D4">
-        <v>2.917421928811585</v>
+        <v>2.288368349494963</v>
       </c>
       <c r="E4">
-        <v>245.4234275958604</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>1.115561034526638</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="G4">
-        <v>9.28329523944449</v>
+        <v>74.8</v>
       </c>
       <c r="H4">
-        <v>0.1385223734673931</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>76.5</v>
+      </c>
+      <c r="I4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="C5">
-        <v>40</v>
+        <v>687.0707205267568</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>79.70093539711073</v>
       </c>
       <c r="E5">
-        <v>384.2494584470343</v>
+        <v>523.7244486893616</v>
       </c>
       <c r="F5">
-        <v>1.74658844748652</v>
+        <v>634.5602975489774</v>
       </c>
       <c r="G5">
-        <v>51.63153015126568</v>
+        <v>678.4159306672818</v>
       </c>
       <c r="H5">
-        <v>1.325953708593838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>751.2311100187678</v>
+      </c>
+      <c r="I5">
+        <v>867.2413080560132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>8.699999999999999</v>
+        <v>101</v>
       </c>
       <c r="C6">
-        <v>45</v>
+        <v>3.123048729667077</v>
       </c>
       <c r="D6">
-        <v>72.5</v>
+        <v>0.362276979077776</v>
       </c>
       <c r="E6">
-        <v>696.0793422450178</v>
+        <v>2.380565675860734</v>
       </c>
       <c r="F6">
-        <v>3.163997010204627</v>
+        <v>2.884364988858988</v>
       </c>
       <c r="G6">
-        <v>63.94280080697139</v>
+        <v>3.083708775760372</v>
       </c>
       <c r="H6">
-        <v>1.419410163546042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>3.414686863721672</v>
+      </c>
+      <c r="I6">
+        <v>3.942005945709151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>12.5</v>
+        <v>101</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>65.5717916351779</v>
       </c>
       <c r="D7">
-        <v>75</v>
+        <v>2.79514383780871</v>
       </c>
       <c r="E7">
-        <v>864.6723902475078</v>
+        <v>59.52199151349748</v>
       </c>
       <c r="F7">
-        <v>3.930329046579581</v>
+        <v>63.74369124976749</v>
       </c>
       <c r="G7">
-        <v>71.56531018784491</v>
+        <v>65.38949605441377</v>
       </c>
       <c r="H7">
-        <v>1.520062647809618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>67.61124162328855</v>
+      </c>
+      <c r="I7">
+        <v>71.72433264248258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>16.3</v>
+        <v>101</v>
       </c>
       <c r="C8">
-        <v>55</v>
+        <v>1.463648822935099</v>
       </c>
       <c r="D8">
-        <v>77.5</v>
+        <v>0.02929041877665628</v>
       </c>
       <c r="E8">
-        <v>1051.529758783211</v>
+        <v>1.400835252407327</v>
       </c>
       <c r="F8">
-        <v>4.779680721741869</v>
+        <v>1.441537007850767</v>
       </c>
       <c r="G8">
-        <v>79.15157229414541</v>
+        <v>1.46229532057691</v>
       </c>
       <c r="H8">
-        <v>1.649738007663954</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="D9">
-        <v>80</v>
-      </c>
-      <c r="E9">
-        <v>1631.622569738947</v>
-      </c>
-      <c r="F9">
-        <v>7.416466226086124</v>
-      </c>
-      <c r="G9">
-        <v>92.93582601647842</v>
-      </c>
-      <c r="H9">
-        <v>1.843874200598884</v>
+        <v>1.486008474889672</v>
+      </c>
+      <c r="I8">
+        <v>1.518253714473261</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="C2">
-        <v>16.25445544554455</v>
+        <v>13.27981651376147</v>
       </c>
       <c r="D2">
-        <v>2.072222225171579</v>
+        <v>2.037250333975857</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F2">
-        <v>14.3</v>
+        <v>11.6</v>
       </c>
       <c r="G2">
-        <v>16.1</v>
+        <v>13.2</v>
       </c>
       <c r="H2">
-        <v>18.1</v>
+        <v>15</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -488,28 +488,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="C3">
-        <v>47.62772277227722</v>
+        <v>46.9302752293578</v>
       </c>
       <c r="D3">
-        <v>1.382253146994514</v>
+        <v>4.017801750411725</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>46.6</v>
+        <v>43.5</v>
       </c>
       <c r="G3">
-        <v>47.6</v>
+        <v>47.1</v>
       </c>
       <c r="H3">
-        <v>48.7</v>
+        <v>50.2</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>53.8</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -517,28 +517,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="C4">
-        <v>74.5762376237624</v>
+        <v>75.04709480122325</v>
       </c>
       <c r="D4">
-        <v>2.288368349494963</v>
+        <v>2.813843266169596</v>
       </c>
       <c r="E4">
         <v>70</v>
       </c>
       <c r="F4">
-        <v>72.59999999999999</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="G4">
-        <v>74.8</v>
+        <v>75</v>
       </c>
       <c r="H4">
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="I4">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -546,28 +546,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="C5">
-        <v>687.0707205267568</v>
+        <v>749.8044306365673</v>
       </c>
       <c r="D5">
-        <v>79.70093539711073</v>
+        <v>136.5179983145521</v>
       </c>
       <c r="E5">
-        <v>523.7244486893616</v>
+        <v>445.2931700086048</v>
       </c>
       <c r="F5">
-        <v>634.5602975489774</v>
+        <v>649.1723935480554</v>
       </c>
       <c r="G5">
-        <v>678.4159306672818</v>
+        <v>747.1805523736863</v>
       </c>
       <c r="H5">
-        <v>751.2311100187678</v>
+        <v>840.2318821685205</v>
       </c>
       <c r="I5">
-        <v>867.2413080560132</v>
+        <v>1091.767145577528</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -575,28 +575,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="C6">
-        <v>3.123048729667077</v>
+        <v>3.408201957438942</v>
       </c>
       <c r="D6">
-        <v>0.362276979077776</v>
+        <v>0.6205363559752369</v>
       </c>
       <c r="E6">
-        <v>2.380565675860734</v>
+        <v>2.024059863675476</v>
       </c>
       <c r="F6">
-        <v>2.884364988858988</v>
+        <v>2.950783607036616</v>
       </c>
       <c r="G6">
-        <v>3.083708775760372</v>
+        <v>3.396275238062211</v>
       </c>
       <c r="H6">
-        <v>3.414686863721672</v>
+        <v>3.81923582803873</v>
       </c>
       <c r="I6">
-        <v>3.942005945709151</v>
+        <v>4.962577934443307</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -604,28 +604,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="C7">
-        <v>65.5717916351779</v>
+        <v>66.30511059064675</v>
       </c>
       <c r="D7">
-        <v>2.79514383780871</v>
+        <v>6.238655379076385</v>
       </c>
       <c r="E7">
-        <v>59.52199151349748</v>
+        <v>52.97681860216045</v>
       </c>
       <c r="F7">
-        <v>63.74369124976749</v>
+        <v>61.26163164704533</v>
       </c>
       <c r="G7">
-        <v>65.38949605441377</v>
+        <v>66.70202406387074</v>
       </c>
       <c r="H7">
-        <v>67.61124162328855</v>
+        <v>71.48567258592317</v>
       </c>
       <c r="I7">
-        <v>71.72433264248258</v>
+        <v>79.09741635356733</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -633,28 +633,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>101</v>
+        <v>327</v>
       </c>
       <c r="C8">
-        <v>1.463648822935099</v>
+        <v>1.460356069501529</v>
       </c>
       <c r="D8">
-        <v>0.02929041877665628</v>
+        <v>0.08149574119412334</v>
       </c>
       <c r="E8">
-        <v>1.400835252407327</v>
+        <v>1.328220160401973</v>
       </c>
       <c r="F8">
-        <v>1.441537007850767</v>
+        <v>1.389272331946451</v>
       </c>
       <c r="G8">
-        <v>1.46229532057691</v>
+        <v>1.45758020893471</v>
       </c>
       <c r="H8">
-        <v>1.486008474889672</v>
+        <v>1.524817015063447</v>
       </c>
       <c r="I8">
-        <v>1.518253714473261</v>
+        <v>1.619623374496063</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>327</v>
+        <v>1000</v>
       </c>
       <c r="C2">
-        <v>13.27981651376147</v>
+        <v>12.5</v>
       </c>
       <c r="D2">
-        <v>2.037250333975857</v>
+        <v>4.361222335568351</v>
       </c>
       <c r="E2">
-        <v>9.800000000000001</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>11.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G2">
-        <v>13.2</v>
+        <v>12.5</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>16.3</v>
       </c>
       <c r="I2">
-        <v>16.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -488,28 +488,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>327</v>
+        <v>1000</v>
       </c>
       <c r="C3">
-        <v>46.9302752293578</v>
+        <v>50.0003</v>
       </c>
       <c r="D3">
-        <v>4.017801750411725</v>
+        <v>5.804784701901996</v>
       </c>
       <c r="E3">
         <v>40</v>
       </c>
       <c r="F3">
-        <v>43.5</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>47.1</v>
+        <v>50</v>
       </c>
       <c r="H3">
-        <v>50.2</v>
+        <v>55</v>
       </c>
       <c r="I3">
-        <v>53.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -517,19 +517,19 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>327</v>
+        <v>1000</v>
       </c>
       <c r="C4">
-        <v>75.04709480122325</v>
+        <v>74.99920000000002</v>
       </c>
       <c r="D4">
-        <v>2.813843266169596</v>
+        <v>2.917421928811585</v>
       </c>
       <c r="E4">
         <v>70</v>
       </c>
       <c r="F4">
-        <v>72.65000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="G4">
         <v>75</v>
@@ -546,28 +546,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>327</v>
+        <v>1000</v>
       </c>
       <c r="C5">
-        <v>749.8044306365673</v>
+        <v>887.3037577532255</v>
       </c>
       <c r="D5">
-        <v>136.5179983145521</v>
+        <v>245.4234275958604</v>
       </c>
       <c r="E5">
-        <v>445.2931700086048</v>
+        <v>384.2494584470343</v>
       </c>
       <c r="F5">
-        <v>649.1723935480554</v>
+        <v>696.0793422450178</v>
       </c>
       <c r="G5">
-        <v>747.1805523736863</v>
+        <v>864.6723902475078</v>
       </c>
       <c r="H5">
-        <v>840.2318821685205</v>
+        <v>1051.529758783211</v>
       </c>
       <c r="I5">
-        <v>1091.767145577528</v>
+        <v>1631.622569738947</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -575,28 +575,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>327</v>
+        <v>1000</v>
       </c>
       <c r="C6">
-        <v>3.408201957438942</v>
+        <v>4.033198898878298</v>
       </c>
       <c r="D6">
-        <v>0.6205363559752369</v>
+        <v>1.115561034526638</v>
       </c>
       <c r="E6">
-        <v>2.024059863675476</v>
+        <v>1.74658844748652</v>
       </c>
       <c r="F6">
-        <v>2.950783607036616</v>
+        <v>3.163997010204627</v>
       </c>
       <c r="G6">
-        <v>3.396275238062211</v>
+        <v>3.930329046579581</v>
       </c>
       <c r="H6">
-        <v>3.81923582803873</v>
+        <v>4.779680721741869</v>
       </c>
       <c r="I6">
-        <v>4.962577934443307</v>
+        <v>7.416466226086124</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -604,28 +604,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>327</v>
+        <v>1000</v>
       </c>
       <c r="C7">
-        <v>66.30511059064675</v>
+        <v>71.50486967605465</v>
       </c>
       <c r="D7">
-        <v>6.238655379076385</v>
+        <v>9.28329523944449</v>
       </c>
       <c r="E7">
-        <v>52.97681860216045</v>
+        <v>51.63153015126568</v>
       </c>
       <c r="F7">
-        <v>61.26163164704533</v>
+        <v>63.94280080697139</v>
       </c>
       <c r="G7">
-        <v>66.70202406387074</v>
+        <v>71.56531018784491</v>
       </c>
       <c r="H7">
-        <v>71.48567258592317</v>
+        <v>79.15157229414541</v>
       </c>
       <c r="I7">
-        <v>79.09741635356733</v>
+        <v>92.93582601647842</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -633,28 +633,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>327</v>
+        <v>1000</v>
       </c>
       <c r="C8">
-        <v>1.460356069501529</v>
+        <v>1.539503847989528</v>
       </c>
       <c r="D8">
-        <v>0.08149574119412334</v>
+        <v>0.1385223734673931</v>
       </c>
       <c r="E8">
-        <v>1.328220160401973</v>
+        <v>1.325953708593838</v>
       </c>
       <c r="F8">
-        <v>1.389272331946451</v>
+        <v>1.419410163546042</v>
       </c>
       <c r="G8">
-        <v>1.45758020893471</v>
+        <v>1.520062647809618</v>
       </c>
       <c r="H8">
-        <v>1.524817015063447</v>
+        <v>1.649738007663954</v>
       </c>
       <c r="I8">
-        <v>1.619623374496063</v>
+        <v>1.843874200598884</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Variable</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Refrigerant Mass Flow</t>
+  </si>
+  <si>
+    <t>Capacity</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,10 +465,10 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>12.5</v>
+        <v>12.5004</v>
       </c>
       <c r="D2">
-        <v>4.361222335568351</v>
+        <v>4.360958357723426</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -491,10 +494,10 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>50.0003</v>
+        <v>49.9998</v>
       </c>
       <c r="D3">
-        <v>5.804784701901996</v>
+        <v>5.805028709517147</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -520,10 +523,10 @@
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>74.99920000000002</v>
+        <v>75.0004</v>
       </c>
       <c r="D4">
-        <v>2.917421928811585</v>
+        <v>2.917672471791968</v>
       </c>
       <c r="E4">
         <v>70</v>
@@ -549,25 +552,25 @@
         <v>1000</v>
       </c>
       <c r="C5">
-        <v>887.3037577532255</v>
+        <v>1000.477713727424</v>
       </c>
       <c r="D5">
-        <v>245.4234275958604</v>
+        <v>361.4273950436432</v>
       </c>
       <c r="E5">
-        <v>384.2494584470343</v>
+        <v>312.7625153063483</v>
       </c>
       <c r="F5">
-        <v>696.0793422450178</v>
+        <v>724.0818255882564</v>
       </c>
       <c r="G5">
-        <v>864.6723902475078</v>
+        <v>966.1861533803215</v>
       </c>
       <c r="H5">
-        <v>1051.529758783211</v>
+        <v>1222.996867828235</v>
       </c>
       <c r="I5">
-        <v>1631.622569738947</v>
+        <v>2285.03816579152</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -578,25 +581,25 @@
         <v>1000</v>
       </c>
       <c r="C6">
-        <v>4.033198898878298</v>
+        <v>4.547625971488291</v>
       </c>
       <c r="D6">
-        <v>1.115561034526638</v>
+        <v>1.642851795652924</v>
       </c>
       <c r="E6">
-        <v>1.74658844748652</v>
+        <v>1.421647796847038</v>
       </c>
       <c r="F6">
-        <v>3.163997010204627</v>
+        <v>3.291281025401165</v>
       </c>
       <c r="G6">
-        <v>3.930329046579581</v>
+        <v>4.391755242637824</v>
       </c>
       <c r="H6">
-        <v>4.779680721741869</v>
+        <v>5.559076671946521</v>
       </c>
       <c r="I6">
-        <v>7.416466226086124</v>
+        <v>10.38653711723418</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -607,25 +610,25 @@
         <v>1000</v>
       </c>
       <c r="C7">
-        <v>71.50486967605465</v>
+        <v>71.50696835839835</v>
       </c>
       <c r="D7">
-        <v>9.28329523944449</v>
+        <v>9.482595840006912</v>
       </c>
       <c r="E7">
-        <v>51.63153015126568</v>
+        <v>51.64094913824175</v>
       </c>
       <c r="F7">
-        <v>63.94280080697139</v>
+        <v>63.59218248386442</v>
       </c>
       <c r="G7">
-        <v>71.56531018784491</v>
+        <v>71.72386546457358</v>
       </c>
       <c r="H7">
-        <v>79.15157229414541</v>
+        <v>78.87917944989465</v>
       </c>
       <c r="I7">
-        <v>92.93582601647842</v>
+        <v>91.8257248838903</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -636,25 +639,54 @@
         <v>1000</v>
       </c>
       <c r="C8">
-        <v>1.539503847989528</v>
+        <v>1.732374630268794</v>
       </c>
       <c r="D8">
-        <v>0.1385223734673931</v>
+        <v>0.4025618509496232</v>
       </c>
       <c r="E8">
-        <v>1.325953708593838</v>
+        <v>0.9981637174768729</v>
       </c>
       <c r="F8">
-        <v>1.419410163546042</v>
+        <v>1.408780183505875</v>
       </c>
       <c r="G8">
-        <v>1.520062647809618</v>
+        <v>1.728556692438227</v>
       </c>
       <c r="H8">
-        <v>1.649738007663954</v>
+        <v>2.027479840789385</v>
       </c>
       <c r="I8">
-        <v>1.843874200598884</v>
+        <v>2.72951243998448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>13500</v>
+      </c>
+      <c r="D9">
+        <v>2873.718541934519</v>
+      </c>
+      <c r="E9">
+        <v>9000</v>
+      </c>
+      <c r="F9">
+        <v>11000</v>
+      </c>
+      <c r="G9">
+        <v>13500</v>
+      </c>
+      <c r="H9">
+        <v>16000</v>
+      </c>
+      <c r="I9">
+        <v>18000</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Variable</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>Refrigerant Mass Flow</t>
-  </si>
-  <si>
-    <t>Capacity</t>
   </si>
 </sst>
 </file>
@@ -422,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,10 +462,10 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>12.5004</v>
+        <v>12.5</v>
       </c>
       <c r="D2">
-        <v>4.360958357723426</v>
+        <v>4.361222335568351</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -494,10 +491,10 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>49.9998</v>
+        <v>50.0003</v>
       </c>
       <c r="D3">
-        <v>5.805028709517147</v>
+        <v>5.804784701901996</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -523,22 +520,22 @@
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>75.0004</v>
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>2.917672471791968</v>
+        <v>3.164176356022529</v>
       </c>
       <c r="E4">
         <v>70</v>
       </c>
       <c r="F4">
-        <v>72.5</v>
+        <v>72</v>
       </c>
       <c r="G4">
         <v>75</v>
       </c>
       <c r="H4">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>80</v>
@@ -552,25 +549,25 @@
         <v>1000</v>
       </c>
       <c r="C5">
-        <v>1000.477713727424</v>
+        <v>887.5522776019221</v>
       </c>
       <c r="D5">
-        <v>361.4273950436432</v>
+        <v>245.8039609162647</v>
       </c>
       <c r="E5">
-        <v>312.7625153063483</v>
+        <v>382.808522977858</v>
       </c>
       <c r="F5">
-        <v>724.0818255882564</v>
+        <v>695.1541840006971</v>
       </c>
       <c r="G5">
-        <v>966.1861533803215</v>
+        <v>865.2702772661264</v>
       </c>
       <c r="H5">
-        <v>1222.996867828235</v>
+        <v>1053.216290604605</v>
       </c>
       <c r="I5">
-        <v>2285.03816579152</v>
+        <v>1627.090284823006</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,25 +578,25 @@
         <v>1000</v>
       </c>
       <c r="C6">
-        <v>4.547625971488291</v>
+        <v>4.034328534554191</v>
       </c>
       <c r="D6">
-        <v>1.642851795652924</v>
+        <v>1.117290731437567</v>
       </c>
       <c r="E6">
-        <v>1.421647796847038</v>
+        <v>1.740038740808445</v>
       </c>
       <c r="F6">
-        <v>3.291281025401165</v>
+        <v>3.159791745457714</v>
       </c>
       <c r="G6">
-        <v>4.391755242637824</v>
+        <v>3.933046714846029</v>
       </c>
       <c r="H6">
-        <v>5.559076671946521</v>
+        <v>4.787346775475475</v>
       </c>
       <c r="I6">
-        <v>10.38653711723418</v>
+        <v>7.395864931013665</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,25 +607,25 @@
         <v>1000</v>
       </c>
       <c r="C7">
-        <v>71.50696835839835</v>
+        <v>71.51137001752784</v>
       </c>
       <c r="D7">
-        <v>9.482595840006912</v>
+        <v>9.292988841609489</v>
       </c>
       <c r="E7">
-        <v>51.64094913824175</v>
+        <v>51.58672668061098</v>
       </c>
       <c r="F7">
-        <v>63.59218248386442</v>
+        <v>63.97944671195547</v>
       </c>
       <c r="G7">
-        <v>71.72386546457358</v>
+        <v>71.55238617563572</v>
       </c>
       <c r="H7">
-        <v>78.87917944989465</v>
+        <v>79.09821146197554</v>
       </c>
       <c r="I7">
-        <v>91.8257248838903</v>
+        <v>92.83006186939957</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,54 +636,25 @@
         <v>1000</v>
       </c>
       <c r="C8">
-        <v>1.732374630268794</v>
+        <v>1.539560509000438</v>
       </c>
       <c r="D8">
-        <v>0.4025618509496232</v>
+        <v>0.1384690984482913</v>
       </c>
       <c r="E8">
-        <v>0.9981637174768729</v>
+        <v>1.325953708593838</v>
       </c>
       <c r="F8">
-        <v>1.408780183505875</v>
+        <v>1.419410163546042</v>
       </c>
       <c r="G8">
-        <v>1.728556692438227</v>
+        <v>1.520062647809618</v>
       </c>
       <c r="H8">
-        <v>2.027479840789385</v>
+        <v>1.649738007663954</v>
       </c>
       <c r="I8">
-        <v>2.72951243998448</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>1000</v>
-      </c>
-      <c r="C9">
-        <v>13500</v>
-      </c>
-      <c r="D9">
-        <v>2873.718541934519</v>
-      </c>
-      <c r="E9">
-        <v>9000</v>
-      </c>
-      <c r="F9">
-        <v>11000</v>
-      </c>
-      <c r="G9">
-        <v>13500</v>
-      </c>
-      <c r="H9">
-        <v>16000</v>
-      </c>
-      <c r="I9">
-        <v>18000</v>
+        <v>1.843874200598884</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Variable</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Refrigerant Mass Flow</t>
+  </si>
+  <si>
+    <t>Capacity</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,25 +465,25 @@
         <v>1000</v>
       </c>
       <c r="C2">
-        <v>12.5</v>
+        <v>19.73079951515696</v>
       </c>
       <c r="D2">
-        <v>4.361222335568351</v>
+        <v>1.100571513184574</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>16.08007203091989</v>
       </c>
       <c r="F2">
-        <v>8.699999999999999</v>
+        <v>18.98898224264481</v>
       </c>
       <c r="G2">
-        <v>12.5</v>
+        <v>19.73044046419676</v>
       </c>
       <c r="H2">
-        <v>16.3</v>
+        <v>20.46970959815821</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>23.91992796908011</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -491,10 +494,10 @@
         <v>1000</v>
       </c>
       <c r="C3">
-        <v>50.0003</v>
+        <v>49.9998</v>
       </c>
       <c r="D3">
-        <v>5.804784701901996</v>
+        <v>5.805028709517147</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -520,22 +523,22 @@
         <v>1000</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>75.0004</v>
       </c>
       <c r="D4">
-        <v>3.164176356022529</v>
+        <v>2.917672471791968</v>
       </c>
       <c r="E4">
         <v>70</v>
       </c>
       <c r="F4">
-        <v>72</v>
+        <v>72.5</v>
       </c>
       <c r="G4">
         <v>75</v>
       </c>
       <c r="H4">
-        <v>78</v>
+        <v>77.5</v>
       </c>
       <c r="I4">
         <v>80</v>
@@ -549,25 +552,25 @@
         <v>1000</v>
       </c>
       <c r="C5">
-        <v>887.5522776019221</v>
+        <v>759.0919729292656</v>
       </c>
       <c r="D5">
-        <v>245.8039609162647</v>
+        <v>267.0173684742495</v>
       </c>
       <c r="E5">
-        <v>382.808522977858</v>
+        <v>268.058047813566</v>
       </c>
       <c r="F5">
-        <v>695.1541840006971</v>
+        <v>557.8108600044125</v>
       </c>
       <c r="G5">
-        <v>865.2702772661264</v>
+        <v>723.7705536515807</v>
       </c>
       <c r="H5">
-        <v>1053.216290604605</v>
+        <v>931.3916456422911</v>
       </c>
       <c r="I5">
-        <v>1627.090284823006</v>
+        <v>1588.633213444696</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -578,25 +581,25 @@
         <v>1000</v>
       </c>
       <c r="C6">
-        <v>4.034328534554191</v>
+        <v>3.450418058769389</v>
       </c>
       <c r="D6">
-        <v>1.117290731437567</v>
+        <v>1.213715311246588</v>
       </c>
       <c r="E6">
-        <v>1.740038740808445</v>
+        <v>1.218445671879846</v>
       </c>
       <c r="F6">
-        <v>3.159791745457714</v>
+        <v>2.535503909110966</v>
       </c>
       <c r="G6">
-        <v>3.933046714846029</v>
+        <v>3.28986615296173</v>
       </c>
       <c r="H6">
-        <v>4.787346775475475</v>
+        <v>4.233598389283141</v>
       </c>
       <c r="I6">
-        <v>7.395864931013665</v>
+        <v>7.221060061112255</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -607,25 +610,25 @@
         <v>1000</v>
       </c>
       <c r="C7">
-        <v>71.51137001752784</v>
+        <v>66.83485223259949</v>
       </c>
       <c r="D7">
-        <v>9.292988841609489</v>
+        <v>8.907899561716722</v>
       </c>
       <c r="E7">
-        <v>51.58672668061098</v>
+        <v>50.19881141593663</v>
       </c>
       <c r="F7">
-        <v>63.97944671195547</v>
+        <v>59.09835495874545</v>
       </c>
       <c r="G7">
-        <v>71.55238617563572</v>
+        <v>66.79353802485406</v>
       </c>
       <c r="H7">
-        <v>79.09821146197554</v>
+        <v>74.57704943345342</v>
       </c>
       <c r="I7">
-        <v>92.83006186939957</v>
+        <v>83.34003033403047</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -636,25 +639,54 @@
         <v>1000</v>
       </c>
       <c r="C8">
-        <v>1.539560509000438</v>
+        <v>1.715343046890143</v>
       </c>
       <c r="D8">
-        <v>0.1384690984482913</v>
+        <v>0.3975245417405736</v>
       </c>
       <c r="E8">
-        <v>1.325953708593838</v>
+        <v>0.9921746374605543</v>
       </c>
       <c r="F8">
-        <v>1.419410163546042</v>
+        <v>1.392972830742016</v>
       </c>
       <c r="G8">
-        <v>1.520062647809618</v>
+        <v>1.705272560995494</v>
       </c>
       <c r="H8">
-        <v>1.649738007663954</v>
+        <v>2.007594744176454</v>
       </c>
       <c r="I8">
-        <v>1.843874200598884</v>
+        <v>2.698058888780564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>1000</v>
+      </c>
+      <c r="C9">
+        <v>13500</v>
+      </c>
+      <c r="D9">
+        <v>2873.718541934519</v>
+      </c>
+      <c r="E9">
+        <v>9000</v>
+      </c>
+      <c r="F9">
+        <v>11000</v>
+      </c>
+      <c r="G9">
+        <v>13500</v>
+      </c>
+      <c r="H9">
+        <v>16000</v>
+      </c>
+      <c r="I9">
+        <v>18000</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -462,25 +462,25 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C2">
-        <v>19.73079951515696</v>
+        <v>20.12729329293731</v>
       </c>
       <c r="D2">
-        <v>1.100571513184574</v>
+        <v>1.067392729962487</v>
       </c>
       <c r="E2">
         <v>16.08007203091989</v>
       </c>
       <c r="F2">
-        <v>18.98898224264481</v>
+        <v>19.40741293415048</v>
       </c>
       <c r="G2">
-        <v>19.73044046419676</v>
+        <v>20.12745645159733</v>
       </c>
       <c r="H2">
-        <v>20.46970959815821</v>
+        <v>20.84707495745016</v>
       </c>
       <c r="I2">
         <v>23.91992796908011</v>
@@ -491,13 +491,13 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C3">
-        <v>49.9998</v>
+        <v>49.99984</v>
       </c>
       <c r="D3">
-        <v>5.805028709517147</v>
+        <v>5.8028122923717</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -520,13 +520,13 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C4">
-        <v>75.0004</v>
+        <v>74.99988</v>
       </c>
       <c r="D4">
-        <v>2.917672471791968</v>
+        <v>2.91582242080651</v>
       </c>
       <c r="E4">
         <v>70</v>
@@ -549,28 +549,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C5">
-        <v>759.0919729292656</v>
+        <v>747.0884972501755</v>
       </c>
       <c r="D5">
-        <v>267.0173684742495</v>
+        <v>256.5742921706667</v>
       </c>
       <c r="E5">
-        <v>268.058047813566</v>
+        <v>264.1617093327257</v>
       </c>
       <c r="F5">
-        <v>557.8108600044125</v>
+        <v>553.0671495963257</v>
       </c>
       <c r="G5">
-        <v>723.7705536515807</v>
+        <v>706.107070080722</v>
       </c>
       <c r="H5">
-        <v>931.3916456422911</v>
+        <v>909.764906974582</v>
       </c>
       <c r="I5">
-        <v>1588.633213444696</v>
+        <v>1610.199657421221</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -578,28 +578,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C6">
-        <v>3.450418058769389</v>
+        <v>3.395856805682616</v>
       </c>
       <c r="D6">
-        <v>1.213715311246588</v>
+        <v>1.16624678259394</v>
       </c>
       <c r="E6">
-        <v>1.218445671879846</v>
+        <v>1.20073504242148</v>
       </c>
       <c r="F6">
-        <v>2.535503909110966</v>
+        <v>2.513941589074208</v>
       </c>
       <c r="G6">
-        <v>3.28986615296173</v>
+        <v>3.209577591276009</v>
       </c>
       <c r="H6">
-        <v>4.233598389283141</v>
+        <v>4.135295031702645</v>
       </c>
       <c r="I6">
-        <v>7.221060061112255</v>
+        <v>7.319089351914639</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -607,28 +607,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C7">
-        <v>66.83485223259949</v>
+        <v>66.59293258773384</v>
       </c>
       <c r="D7">
-        <v>8.907899561716722</v>
+        <v>8.829039347566445</v>
       </c>
       <c r="E7">
-        <v>50.19881141593663</v>
+        <v>49.37996184290603</v>
       </c>
       <c r="F7">
-        <v>59.09835495874545</v>
+        <v>58.98508752900509</v>
       </c>
       <c r="G7">
-        <v>66.79353802485406</v>
+        <v>66.58805403244403</v>
       </c>
       <c r="H7">
-        <v>74.57704943345342</v>
+        <v>74.29700139325315</v>
       </c>
       <c r="I7">
-        <v>83.34003033403047</v>
+        <v>84.07697108049842</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -636,28 +636,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C8">
-        <v>1.715343046890143</v>
+        <v>1.715485958031988</v>
       </c>
       <c r="D8">
-        <v>0.3975245417405736</v>
+        <v>0.3737026169477889</v>
       </c>
       <c r="E8">
-        <v>0.9921746374605543</v>
+        <v>0.9945388127932807</v>
       </c>
       <c r="F8">
-        <v>1.392972830742016</v>
+        <v>1.413521339771791</v>
       </c>
       <c r="G8">
-        <v>1.705272560995494</v>
+        <v>1.702474104568811</v>
       </c>
       <c r="H8">
-        <v>2.007594744176454</v>
+        <v>1.989265083471993</v>
       </c>
       <c r="I8">
-        <v>2.698058888780564</v>
+        <v>2.67370787602378</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -665,25 +665,25 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="C9">
         <v>13500</v>
       </c>
       <c r="D9">
-        <v>2873.718541934519</v>
+        <v>2655.699257768007</v>
       </c>
       <c r="E9">
         <v>9000</v>
       </c>
       <c r="F9">
-        <v>11000</v>
+        <v>11200</v>
       </c>
       <c r="G9">
         <v>13500</v>
       </c>
       <c r="H9">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="I9">
         <v>18000</v>

--- a/datasets/Parallel_Filter_Stats.xlsx
+++ b/datasets/Parallel_Filter_Stats.xlsx
@@ -465,25 +465,25 @@
         <v>5000</v>
       </c>
       <c r="C2">
-        <v>20.12729329293731</v>
+        <v>14.95002</v>
       </c>
       <c r="D2">
-        <v>1.067392729962487</v>
+        <v>8.662638643118635</v>
       </c>
       <c r="E2">
-        <v>16.08007203091989</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>19.40741293415048</v>
+        <v>7.475</v>
       </c>
       <c r="G2">
-        <v>20.12745645159733</v>
+        <v>14.95</v>
       </c>
       <c r="H2">
-        <v>20.84707495745016</v>
+        <v>22.425</v>
       </c>
       <c r="I2">
-        <v>23.91992796908011</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,25 +494,25 @@
         <v>5000</v>
       </c>
       <c r="C3">
-        <v>49.99984</v>
+        <v>49.95002000000001</v>
       </c>
       <c r="D3">
-        <v>5.8028122923717</v>
+        <v>8.662638643118635</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>45</v>
+        <v>42.475</v>
       </c>
       <c r="G3">
-        <v>50</v>
+        <v>49.95</v>
       </c>
       <c r="H3">
-        <v>55</v>
+        <v>57.42500000000001</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,22 +523,22 @@
         <v>5000</v>
       </c>
       <c r="C4">
-        <v>74.99988</v>
+        <v>74.95001999999999</v>
       </c>
       <c r="D4">
-        <v>2.91582242080651</v>
+        <v>2.886930354714951</v>
       </c>
       <c r="E4">
         <v>70</v>
       </c>
       <c r="F4">
-        <v>72.5</v>
+        <v>72.47499999999999</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>74.95</v>
       </c>
       <c r="H4">
-        <v>77.5</v>
+        <v>77.42500000000001</v>
       </c>
       <c r="I4">
         <v>80</v>
@@ -552,25 +552,25 @@
         <v>5000</v>
       </c>
       <c r="C5">
-        <v>747.0884972501755</v>
+        <v>883.9745256500373</v>
       </c>
       <c r="D5">
-        <v>256.5742921706667</v>
+        <v>548.9691248772526</v>
       </c>
       <c r="E5">
-        <v>264.1617093327257</v>
+        <v>51.06911025303199</v>
       </c>
       <c r="F5">
-        <v>553.0671495963257</v>
+        <v>473.3640293741739</v>
       </c>
       <c r="G5">
-        <v>706.107070080722</v>
+        <v>757.487449361784</v>
       </c>
       <c r="H5">
-        <v>909.764906974582</v>
+        <v>1168.897416824464</v>
       </c>
       <c r="I5">
-        <v>1610.199657421221</v>
+        <v>3426.78767522376</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,25 +581,25 @@
         <v>5000</v>
       </c>
       <c r="C6">
-        <v>3.395856805682616</v>
+        <v>4.018066025681987</v>
       </c>
       <c r="D6">
-        <v>1.16624678259394</v>
+        <v>2.495314203987512</v>
       </c>
       <c r="E6">
-        <v>1.20073504242148</v>
+        <v>0.2321323193319636</v>
       </c>
       <c r="F6">
-        <v>2.513941589074208</v>
+        <v>2.151654678973517</v>
       </c>
       <c r="G6">
-        <v>3.209577591276009</v>
+        <v>3.443124769826291</v>
       </c>
       <c r="H6">
-        <v>4.135295031702645</v>
+        <v>5.313170076474837</v>
       </c>
       <c r="I6">
-        <v>7.319089351914639</v>
+        <v>15.57630761465346</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,25 +610,25 @@
         <v>5000</v>
       </c>
       <c r="C7">
-        <v>66.59293258773384</v>
+        <v>69.97073485711803</v>
       </c>
       <c r="D7">
-        <v>8.829039347566445</v>
+        <v>14.29305141868105</v>
       </c>
       <c r="E7">
-        <v>49.37996184290603</v>
+        <v>38.06536296353289</v>
       </c>
       <c r="F7">
-        <v>58.98508752900509</v>
+        <v>58.76314971746178</v>
       </c>
       <c r="G7">
-        <v>66.58805403244403</v>
+        <v>69.9688202484181</v>
       </c>
       <c r="H7">
-        <v>74.29700139325315</v>
+        <v>81.61145300906441</v>
       </c>
       <c r="I7">
-        <v>84.07697108049842</v>
+        <v>103.6520532969717</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,25 +639,25 @@
         <v>5000</v>
       </c>
       <c r="C8">
-        <v>1.715485958031988</v>
+        <v>1.620936784243737</v>
       </c>
       <c r="D8">
-        <v>0.3737026169477889</v>
+        <v>0.6183514256259423</v>
       </c>
       <c r="E8">
-        <v>0.9945388127932807</v>
+        <v>0.5312047499164733</v>
       </c>
       <c r="F8">
-        <v>1.413521339771791</v>
+        <v>1.109644836230542</v>
       </c>
       <c r="G8">
-        <v>1.702474104568811</v>
+        <v>1.588888018984051</v>
       </c>
       <c r="H8">
-        <v>1.989265083471993</v>
+        <v>2.066226127260754</v>
       </c>
       <c r="I8">
-        <v>2.67370787602378</v>
+        <v>3.386818343590615</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,25 +668,25 @@
         <v>5000</v>
       </c>
       <c r="C9">
-        <v>13500</v>
+        <v>12450.02</v>
       </c>
       <c r="D9">
-        <v>2655.699257768007</v>
+        <v>4331.276023298215</v>
       </c>
       <c r="E9">
-        <v>9000</v>
+        <v>5000</v>
       </c>
       <c r="F9">
-        <v>11200</v>
+        <v>8700</v>
       </c>
       <c r="G9">
-        <v>13500</v>
+        <v>12450</v>
       </c>
       <c r="H9">
-        <v>15800</v>
+        <v>16200</v>
       </c>
       <c r="I9">
-        <v>18000</v>
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
